--- a/Excel/Simulations_pret_bancaire/Calculette_simulation_pret_bancaire.xlsx
+++ b/Excel/Simulations_pret_bancaire/Calculette_simulation_pret_bancaire.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\yanndanielou-programmation\Excel\Simulations_pret_bancaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32347ACA-554B-463B-BA99-2EEAADF14FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45EF18F-4028-442E-AF5D-92767DEB149F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Colonne_Amortissement_Capital">Sheet1!$D:$D</definedName>
@@ -21,11 +22,13 @@
     <definedName name="COLONNE_NUMERO_ECHEANCE">Sheet1!$A:$A</definedName>
     <definedName name="Colonne_Somme_Restante_Due">Sheet1!$C:$C</definedName>
     <definedName name="Colonne_Versement">Sheet1!$B:$B</definedName>
+    <definedName name="NOMBRE_MENSUALITES">Sheet1!$I$5</definedName>
     <definedName name="SOMME_EMPRUNTEE">Sheet1!$I$4</definedName>
     <definedName name="Somme_Restante_Due">Sheet1!$C:$C</definedName>
     <definedName name="TAEG">Sheet1!$I$3</definedName>
+    <definedName name="TOTAL_INTERETS">Sheet1!$I$9</definedName>
     <definedName name="Versement">Sheet1!$B:$B</definedName>
-    <definedName name="VERSEMENT_MENSUEL">Sheet1!$I$5</definedName>
+    <definedName name="VERSEMENT_MENSUEL">Sheet1!$I$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Versement</t>
   </si>
@@ -82,15 +85,77 @@
   <si>
     <t>Versement mensuel</t>
   </si>
+  <si>
+    <t>Nombre mensualités</t>
+  </si>
+  <si>
+    <t>onnées</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Taux d’intérêt annuel</t>
+  </si>
+  <si>
+    <t>Nombre de mois de remboursement</t>
+  </si>
+  <si>
+    <t>Montant de l’emprunt</t>
+  </si>
+  <si>
+    <t>Formule</t>
+  </si>
+  <si>
+    <t>Résultat</t>
+  </si>
+  <si>
+    <t>Paiement mensuel d’un emprunt dont les conditions sont spécifiées en tant qu’arguments dans la plage A2:A4.</t>
+  </si>
+  <si>
+    <t>(292,45 €)</t>
+  </si>
+  <si>
+    <t>=VPM(A2/12; A3; A4,,1)</t>
+  </si>
+  <si>
+    <t>Paiement mensuel d’un emprunt dont les conditions sont spécifiées en tant qu’arguments dans la plage A2:A4, sauf que les paiements sont dus au début de la période.</t>
+  </si>
+  <si>
+    <t>(1 030,16 €)</t>
+  </si>
+  <si>
+    <t>Données</t>
+  </si>
+  <si>
+    <t>6 %</t>
+  </si>
+  <si>
+    <t>50 000 €</t>
+  </si>
+  <si>
+    <t>Résultat actif</t>
+  </si>
+  <si>
+    <t>PMT(A9/12,A10*12, 0,A11)</t>
+  </si>
+  <si>
+    <t>Montant à économiser chaque mois pour avoir 50 000 € au bout des 18 ans.</t>
+  </si>
+  <si>
+    <t>(129,08 €)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,16 +163,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17.600000000000001"/>
+      <color rgb="FF393939"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF363636"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17.600000000000001"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17.600000000000001"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDADADA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F4F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -181,11 +290,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +321,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +626,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +638,7 @@
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.5703125" customWidth="1"/>
+    <col min="9" max="9" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -539,16 +680,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <f>IF(C2&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C2)</f>
-        <v>548.75</v>
+        <f t="shared" ref="B3:B34" si="0">IF(C2&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C2)</f>
+        <v>552.59495054994909</v>
       </c>
       <c r="C3" s="3">
-        <f>C2-Colonne_Amortissement_Capital</f>
-        <v>49697.083333333336</v>
+        <f t="shared" ref="C3:C34" si="1">C2-Colonne_Amortissement_Capital</f>
+        <v>49693.238382783384</v>
       </c>
       <c r="D3" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>302.91666666666663</v>
+        <f t="shared" ref="D3:D34" si="2">Colonne_Versement-Colonne_interets</f>
+        <v>306.76161721661572</v>
       </c>
       <c r="E3" s="3">
         <f>C2*TAEG/12</f>
@@ -557,30 +698,30 @@
       <c r="H3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="19">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A62" si="0">A3+1</f>
+        <f t="shared" ref="A4:A62" si="3">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <f>IF(C3&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C3)</f>
-        <v>548.75</v>
+        <f t="shared" si="0"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C4" s="3">
-        <f>C3-Colonne_Amortissement_Capital</f>
-        <v>49392.67732638889</v>
+        <f t="shared" si="1"/>
+        <v>49384.968520948787</v>
       </c>
       <c r="D4" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>304.40600694444447</v>
+        <f t="shared" si="2"/>
+        <v>308.26986183459746</v>
       </c>
       <c r="E4" s="3">
         <f>C3*TAEG/12</f>
-        <v>244.34399305555556</v>
+        <v>244.32508871535163</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>6</v>
@@ -591,98 +732,98 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <f>IF(C4&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C4)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C5" s="3">
-        <f>C4-Colonne_Amortissement_Capital</f>
-        <v>49086.77465657697</v>
+        <f t="shared" si="1"/>
+        <v>49075.182998960168</v>
       </c>
       <c r="D5" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>305.90266981192133</v>
+        <f t="shared" si="2"/>
+        <v>309.78552198861757</v>
       </c>
       <c r="E5" s="3">
         <f>C4*TAEG/12</f>
-        <v>242.8473301880787</v>
+        <v>242.80942856133152</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="5">
-        <v>548.75</v>
+        <v>11</v>
+      </c>
+      <c r="I5" s="11">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <f>IF(C5&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C5)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C6" s="3">
-        <f>C5-Colonne_Amortissement_Capital</f>
-        <v>48779.367965305137</v>
+        <f t="shared" si="1"/>
+        <v>48763.874364821771</v>
       </c>
       <c r="D6" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>307.40669127182991</v>
+        <f t="shared" si="2"/>
+        <v>311.30863413839495</v>
       </c>
       <c r="E6" s="3">
         <f>C5*TAEG/12</f>
-        <v>241.34330872817009</v>
+        <v>241.28631641155414</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <f>IF(C6&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C6)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C7" s="3">
-        <f>C6-Colonne_Amortissement_Capital</f>
-        <v>48470.449857801221</v>
+        <f t="shared" si="1"/>
+        <v>48451.035129898861</v>
       </c>
       <c r="D7" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>308.91810750391642</v>
+        <f t="shared" si="2"/>
+        <v>312.83923492290876</v>
       </c>
       <c r="E7" s="3">
         <f>C6*TAEG/12</f>
-        <v>239.83189249608358</v>
+        <v>239.75571562704036</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <f>IF(C7&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C7)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C8" s="3">
-        <f>C7-Colonne_Amortissement_Capital</f>
-        <v>48160.012902935407</v>
+        <f t="shared" si="1"/>
+        <v>48136.657768737583</v>
       </c>
       <c r="D8" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>310.43695486581066</v>
+        <f t="shared" si="2"/>
+        <v>314.37736116127974</v>
       </c>
       <c r="E8" s="3">
         <f>C7*TAEG/12</f>
-        <v>238.31304513418934</v>
+        <v>238.21758938866938</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>9</v>
@@ -691,2565 +832,2571 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <f>IF(C8&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C8)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C9" s="3">
-        <f>C8-Colonne_Amortissement_Capital</f>
-        <v>47848.049633041504</v>
+        <f t="shared" si="1"/>
+        <v>47820.734718883927</v>
       </c>
       <c r="D9" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>311.96326989390093</v>
+        <f t="shared" si="2"/>
+        <v>315.92304985365604</v>
       </c>
       <c r="E9" s="3">
         <f>C8*TAEG/12</f>
-        <v>236.78673010609907</v>
+        <v>236.67190069629308</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="5">
         <f>SUM(Colonne_interets)</f>
-        <v>16480.179751152456</v>
+        <v>16311.407424209327</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <f>IF(C9&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C9)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C10" s="3">
-        <f>C9-Colonne_Amortissement_Capital</f>
-        <v>47534.552543737293</v>
+        <f t="shared" si="1"/>
+        <v>47503.258380701824</v>
       </c>
       <c r="D10" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>313.49708930421264</v>
+        <f t="shared" si="2"/>
+        <v>317.47633818210318</v>
       </c>
       <c r="E10" s="3">
         <f>C9*TAEG/12</f>
-        <v>235.25291069578739</v>
+        <v>235.11861236784594</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <f>IF(C10&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C10)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C11" s="3">
-        <f>C10-Colonne_Amortissement_Capital</f>
-        <v>47219.514093744001</v>
+        <f t="shared" si="1"/>
+        <v>47184.221117190325</v>
       </c>
       <c r="D11" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>315.03844999329169</v>
+        <f t="shared" si="2"/>
+        <v>319.03726351149851</v>
       </c>
       <c r="E11" s="3">
         <f>C10*TAEG/12</f>
-        <v>233.71155000670834</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
+        <v>233.55768703845061</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="5">
+        <f>-PMT(TAEG/12,NOMBRE_MENSUALITES,SOMME_EMPRUNTEE)</f>
+        <v>552.59495054994909</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <f>IF(C11&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C11)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C12" s="3">
-        <f>C11-Colonne_Amortissement_Capital</f>
-        <v>46902.926704704907</v>
+        <f t="shared" si="1"/>
+        <v>46863.615253799893</v>
       </c>
       <c r="D12" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>316.58738903909205</v>
+        <f t="shared" si="2"/>
+        <v>320.60586339043005</v>
       </c>
       <c r="E12" s="3">
         <f>C11*TAEG/12</f>
-        <v>232.16261096090798</v>
+        <v>231.98908715951907</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <f>IF(C12&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C12)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C13" s="3">
-        <f>C12-Colonne_Amortissement_Capital</f>
-        <v>46584.782761003036</v>
+        <f t="shared" si="1"/>
+        <v>46541.433078247792</v>
       </c>
       <c r="D13" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>318.14394370186756</v>
+        <f t="shared" si="2"/>
+        <v>322.18217555209958</v>
       </c>
       <c r="E13" s="3">
         <f>C12*TAEG/12</f>
-        <v>230.60605629813244</v>
+        <v>230.41277499784948</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <f>IF(C13&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C13)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C14" s="3">
-        <f>C13-Colonne_Amortissement_Capital</f>
-        <v>46265.074609577969</v>
+        <f t="shared" si="1"/>
+        <v>46217.66684033256</v>
       </c>
       <c r="D14" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>319.70815142506842</v>
+        <f t="shared" si="2"/>
+        <v>323.76623791523082</v>
       </c>
       <c r="E14" s="3">
         <f>C13*TAEG/12</f>
-        <v>229.04184857493158</v>
+        <v>228.8287126347183</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <f>IF(C14&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C14)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C15" s="3">
-        <f>C14-Colonne_Amortissement_Capital</f>
-        <v>45943.794559741727</v>
+        <f t="shared" si="1"/>
+        <v>45892.30875174758</v>
       </c>
       <c r="D15" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>321.28004983624169</v>
+        <f t="shared" si="2"/>
+        <v>325.35808858498069</v>
       </c>
       <c r="E15" s="3">
         <f>C14*TAEG/12</f>
-        <v>227.46995016375834</v>
+        <v>227.2368619649684</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <f>IF(C15&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C15)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C16" s="3">
-        <f>C15-Colonne_Amortissement_Capital</f>
-        <v>45620.934882993788</v>
+        <f t="shared" si="1"/>
+        <v>45565.350985893725</v>
       </c>
       <c r="D16" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>322.85967674793653</v>
+        <f t="shared" si="2"/>
+        <v>326.95776585385681</v>
       </c>
       <c r="E16" s="3">
         <f>C15*TAEG/12</f>
-        <v>225.89032325206347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>225.63718469609225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <f>IF(C16&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C16)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C17" s="3">
-        <f>C16-Colonne_Amortissement_Capital</f>
-        <v>45296.487812835177</v>
+        <f t="shared" si="1"/>
+        <v>45236.785677691085</v>
       </c>
       <c r="D17" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>324.44707015861388</v>
+        <f t="shared" si="2"/>
+        <v>328.56530820263833</v>
       </c>
       <c r="E17" s="3">
         <f>C16*TAEG/12</f>
-        <v>224.30292984138612</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>224.02964234731078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <f>IF(C17&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C17)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C18" s="3">
-        <f>C17-Colonne_Amortissement_Capital</f>
-        <v>44970.44554458162</v>
+        <f t="shared" si="1"/>
+        <v>44906.604923389787</v>
       </c>
       <c r="D18" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>326.04226825356034</v>
+        <f t="shared" si="2"/>
+        <v>330.18075430130125</v>
       </c>
       <c r="E18" s="3">
         <f>C17*TAEG/12</f>
-        <v>222.70773174643963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>222.41419624864784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <f>IF(C18&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C18)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C19" s="3">
-        <f>C18-Colonne_Amortissement_Capital</f>
-        <v>44642.800235175811</v>
+        <f t="shared" si="1"/>
+        <v>44574.800780379839</v>
       </c>
       <c r="D19" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>327.6453094058071</v>
+        <f t="shared" si="2"/>
+        <v>331.80414300994937</v>
       </c>
       <c r="E19" s="3">
         <f>C18*TAEG/12</f>
-        <v>221.10469059419293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>220.79080753999975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <f>IF(C19&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C19)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C20" s="3">
-        <f>C19-Colonne_Amortissement_Capital</f>
-        <v>44313.544002998759</v>
+        <f t="shared" si="1"/>
+        <v>44241.365267000088</v>
       </c>
       <c r="D20" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>329.25623217705231</v>
+        <f t="shared" si="2"/>
+        <v>333.43551337974827</v>
       </c>
       <c r="E20" s="3">
         <f>C19*TAEG/12</f>
-        <v>219.49376782294772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>219.15943717020085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <f>IF(C20&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C20)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C21" s="3">
-        <f>C20-Colonne_Amortissement_Capital</f>
-        <v>43982.66892768017</v>
+        <f t="shared" si="1"/>
+        <v>43906.290362346226</v>
       </c>
       <c r="D21" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>330.87507531858944</v>
+        <f t="shared" si="2"/>
+        <v>335.07490465386536</v>
       </c>
       <c r="E21" s="3">
         <f>C20*TAEG/12</f>
-        <v>217.87492468141056</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>217.52004589608376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <f>IF(C21&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C21)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C22" s="3">
-        <f>C21-Colonne_Amortissement_Capital</f>
-        <v>43650.167049907934</v>
+        <f t="shared" si="1"/>
+        <v>43569.56800607781</v>
       </c>
       <c r="D22" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>332.50187777223914</v>
+        <f t="shared" si="2"/>
+        <v>336.72235626841348</v>
       </c>
       <c r="E22" s="3">
         <f>C21*TAEG/12</f>
-        <v>216.24812222776083</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>215.87259428153561</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <f>IF(C22&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C22)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C23" s="3">
-        <f>C22-Colonne_Amortissement_Capital</f>
-        <v>43316.030371236651</v>
+        <f t="shared" si="1"/>
+        <v>43231.190098224411</v>
       </c>
       <c r="D23" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>334.13667867128595</v>
+        <f t="shared" si="2"/>
+        <v>338.37790785339985</v>
       </c>
       <c r="E23" s="3">
         <f>C22*TAEG/12</f>
-        <v>214.61332132871402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>214.21704269654921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="3">
-        <f>IF(C23&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C23)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C24" s="3">
-        <f>C23-Colonne_Amortissement_Capital</f>
-        <v>42980.250853895232</v>
+        <f t="shared" si="1"/>
+        <v>42891.148498990733</v>
       </c>
       <c r="D24" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>335.77951734141982</v>
+        <f t="shared" si="2"/>
+        <v>340.04159923367911</v>
       </c>
       <c r="E24" s="3">
         <f>C23*TAEG/12</f>
-        <v>212.97048265858018</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>212.55335131627001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="3">
-        <f>IF(C24&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C24)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C25" s="3">
-        <f>C24-Colonne_Amortissement_Capital</f>
-        <v>42642.820420593547</v>
+        <f t="shared" si="1"/>
+        <v>42549.435028560823</v>
       </c>
       <c r="D25" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>337.43043330168177</v>
+        <f t="shared" si="2"/>
+        <v>341.71347042991135</v>
       </c>
       <c r="E25" s="3">
         <f>C24*TAEG/12</f>
-        <v>211.31956669831823</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>210.88148012003776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
-        <f>IF(C25&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C25)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C26" s="3">
-        <f>C25-Colonne_Amortissement_Capital</f>
-        <v>42303.73095432813</v>
+        <f t="shared" si="1"/>
+        <v>42206.041466901297</v>
       </c>
       <c r="D26" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>339.08946626541513</v>
+        <f t="shared" si="2"/>
+        <v>343.39356165952506</v>
       </c>
       <c r="E26" s="3">
         <f>C25*TAEG/12</f>
-        <v>209.6605337345849</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>209.20138889042403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="3">
-        <f>IF(C26&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C26)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C27" s="3">
-        <f>C26-Colonne_Amortissement_Capital</f>
-        <v>41962.974298186913</v>
+        <f t="shared" si="1"/>
+        <v>41860.959553563611</v>
       </c>
       <c r="D27" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>340.75665614121999</v>
+        <f t="shared" si="2"/>
+        <v>345.08191333768434</v>
       </c>
       <c r="E27" s="3">
         <f>C26*TAEG/12</f>
-        <v>207.99334385877998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>207.51303721226472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="3">
-        <f>IF(C27&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C27)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C28" s="3">
-        <f>C27-Colonne_Amortissement_Capital</f>
-        <v>41620.542255152999</v>
+        <f t="shared" si="1"/>
+        <v>41514.18098748535</v>
       </c>
       <c r="D28" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>342.4320430339144</v>
+        <f t="shared" si="2"/>
+        <v>346.77856607826129</v>
       </c>
       <c r="E28" s="3">
         <f>C27*TAEG/12</f>
-        <v>206.31795696608563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205.81638447168777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="3">
-        <f>IF(C28&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C28)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C29" s="3">
-        <f>C28-Colonne_Amortissement_Capital</f>
-        <v>41276.426587907503</v>
+        <f t="shared" si="1"/>
+        <v>41165.697426790539</v>
       </c>
       <c r="D29" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>344.11566724549778</v>
+        <f t="shared" si="2"/>
+        <v>348.48356069481281</v>
       </c>
       <c r="E29" s="3">
         <f>C28*TAEG/12</f>
-        <v>204.63433275450222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>204.11138985513628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="3">
-        <f>IF(C29&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C29)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C30" s="3">
-        <f>C29-Colonne_Amortissement_Capital</f>
-        <v>40930.619018631383</v>
+        <f t="shared" si="1"/>
+        <v>40815.500488588979</v>
       </c>
       <c r="D30" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>345.8075692761214</v>
+        <f t="shared" si="2"/>
+        <v>350.19693820156226</v>
       </c>
       <c r="E30" s="3">
         <f>C29*TAEG/12</f>
-        <v>202.94243072387857</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>202.3980123483868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="3">
-        <f>IF(C30&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C30)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C31" s="3">
-        <f>C30-Colonne_Amortissement_Capital</f>
-        <v>40583.111228806323</v>
+        <f t="shared" si="1"/>
+        <v>40463.581748774595</v>
       </c>
       <c r="D31" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>347.50778982506233</v>
+        <f t="shared" si="2"/>
+        <v>351.91873981438664</v>
       </c>
       <c r="E31" s="3">
         <f>C30*TAEG/12</f>
-        <v>201.24221017493764</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200.67621073556248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="3">
-        <f>IF(C31&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C31)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C32" s="3">
-        <f>C31-Colonne_Amortissement_Capital</f>
-        <v>40233.894859014617</v>
+        <f t="shared" si="1"/>
+        <v>40109.932741822791</v>
       </c>
       <c r="D32" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>349.21636979170228</v>
+        <f t="shared" si="2"/>
+        <v>353.64900695180734</v>
       </c>
       <c r="E32" s="3">
         <f>C31*TAEG/12</f>
-        <v>199.53363020829775</v>
+        <v>198.94594359814175</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="3">
-        <f>IF(C32&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C32)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C33" s="3">
-        <f>C32-Colonne_Amortissement_Capital</f>
-        <v>39882.961508738103</v>
+        <f t="shared" si="1"/>
+        <v>39754.544960586805</v>
       </c>
       <c r="D33" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>350.93335027651142</v>
+        <f t="shared" si="2"/>
+        <v>355.38778123598706</v>
       </c>
       <c r="E33" s="3">
         <f>C32*TAEG/12</f>
-        <v>197.81664972348855</v>
+        <v>197.20716931396205</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="3">
-        <f>IF(C33&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C33)</f>
-        <v>548.75</v>
+        <v>552.59495054994909</v>
       </c>
       <c r="C34" s="3">
-        <f>C33-Colonne_Amortissement_Capital</f>
-        <v>39530.302736156067</v>
+        <f t="shared" si="1"/>
+        <v>39397.409856093072</v>
       </c>
       <c r="D34" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>352.65877258203773</v>
+        <f t="shared" si="2"/>
+        <v>357.13510449373064</v>
       </c>
       <c r="E34" s="3">
         <f>C33*TAEG/12</f>
-        <v>196.0912274179623</v>
+        <v>195.45984605621845</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <f>IF(C34&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C34)</f>
-        <v>548.75</v>
+        <f t="shared" ref="B35:B66" si="4">IF(C34&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C34)</f>
+        <v>552.59495054994909</v>
       </c>
       <c r="C35" s="3">
-        <f>C34-Colonne_Amortissement_Capital</f>
-        <v>39175.910057942165</v>
+        <f t="shared" ref="C35:C66" si="5">C34-Colonne_Amortissement_Capital</f>
+        <v>39038.518837335578</v>
       </c>
       <c r="D35" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>354.39267821389933</v>
+        <f t="shared" ref="D35:D66" si="6">Colonne_Versement-Colonne_interets</f>
+        <v>358.89101875749145</v>
       </c>
       <c r="E35" s="3">
         <f>C34*TAEG/12</f>
-        <v>194.35732178610067</v>
+        <v>193.70393179245761</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <f>IF(C35&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C35)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C36" s="3">
-        <f>C35-Colonne_Amortissement_Capital</f>
-        <v>38819.774949060382</v>
+        <f t="shared" si="5"/>
+        <v>38677.863271069196</v>
       </c>
       <c r="D36" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>356.13510888178439</v>
+        <f t="shared" si="6"/>
+        <v>360.65556626638249</v>
       </c>
       <c r="E36" s="3">
         <f>C35*TAEG/12</f>
-        <v>192.61489111821564</v>
+        <v>191.9393842835666</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="3">
-        <f>IF(C36&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C36)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C37" s="3">
-        <f>C36-Colonne_Amortissement_Capital</f>
-        <v>38461.888842559929</v>
+        <f t="shared" si="5"/>
+        <v>38315.434481602002</v>
       </c>
       <c r="D37" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>357.88610650045314</v>
+        <f t="shared" si="6"/>
+        <v>362.42878946719225</v>
       </c>
       <c r="E37" s="3">
         <f>C36*TAEG/12</f>
-        <v>190.86389349954686</v>
+        <v>190.16616108275687</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <f>IF(C37&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C37)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C38" s="3">
-        <f>C37-Colonne_Amortissement_Capital</f>
-        <v>38102.243129369184</v>
+        <f t="shared" si="5"/>
+        <v>37951.2237505866</v>
       </c>
       <c r="D38" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>359.64571319074707</v>
+        <f t="shared" si="6"/>
+        <v>364.21073101540594</v>
       </c>
       <c r="E38" s="3">
         <f>C37*TAEG/12</f>
-        <v>189.10428680925295</v>
+        <v>188.38421953454315</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f>IF(C38&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C38)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C39" s="3">
-        <f>C38-Colonne_Amortissement_Capital</f>
-        <v>37740.829158088585</v>
+        <f t="shared" si="5"/>
+        <v>37585.222316810366</v>
       </c>
       <c r="D39" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>361.41397128060157</v>
+        <f t="shared" si="6"/>
+        <v>366.00143377623169</v>
       </c>
       <c r="E39" s="3">
         <f>C38*TAEG/12</f>
-        <v>187.33602871939846</v>
+        <v>186.59351677371743</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <f>IF(C39&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C39)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C40" s="3">
-        <f>C39-Colonne_Amortissement_Capital</f>
-        <v>37377.63823478252</v>
+        <f t="shared" si="5"/>
+        <v>37217.421375984733</v>
       </c>
       <c r="D40" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>363.19092330606452</v>
+        <f t="shared" si="6"/>
+        <v>367.80094082563141</v>
       </c>
       <c r="E40" s="3">
         <f>C39*TAEG/12</f>
-        <v>185.55907669393551</v>
+        <v>184.79400972431765</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B41" s="3">
-        <f>IF(C40&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C40)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C41" s="3">
-        <f>C40-Colonne_Amortissement_Capital</f>
-        <v>37012.661622770203</v>
+        <f t="shared" si="5"/>
+        <v>36847.812080533375</v>
       </c>
       <c r="D41" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>364.97661201231926</v>
+        <f t="shared" si="6"/>
+        <v>369.60929545135753</v>
       </c>
       <c r="E41" s="3">
         <f>C40*TAEG/12</f>
-        <v>183.77338798768071</v>
+        <v>182.98565509859159</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <f>IF(C41&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C41)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C42" s="3">
-        <f>C41-Colonne_Amortissement_Capital</f>
-        <v>36645.890542415487</v>
+        <f t="shared" si="5"/>
+        <v>36476.385539379378</v>
       </c>
       <c r="D42" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>366.77108035471315</v>
+        <f t="shared" si="6"/>
+        <v>371.4265411539933</v>
       </c>
       <c r="E42" s="3">
         <f>C41*TAEG/12</f>
-        <v>181.97891964528682</v>
+        <v>181.16840939595576</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B43" s="3">
-        <f>IF(C42&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C42)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C43" s="3">
-        <f>C42-Colonne_Amortissement_Capital</f>
-        <v>36277.316170915699</v>
+        <f t="shared" si="5"/>
+        <v>36103.132817731377</v>
       </c>
       <c r="D43" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>368.57437149979057</v>
+        <f t="shared" si="6"/>
+        <v>373.25272164800049</v>
       </c>
       <c r="E43" s="3">
         <f>C42*TAEG/12</f>
-        <v>180.17562850020946</v>
+        <v>179.3422289019486</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <f>IF(C43&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C43)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C44" s="3">
-        <f>C43-Colonne_Amortissement_Capital</f>
-        <v>35906.929642089366</v>
+        <f t="shared" si="5"/>
+        <v>35728.04493686861</v>
       </c>
       <c r="D44" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>370.38652882633119</v>
+        <f t="shared" si="6"/>
+        <v>375.08788086276979</v>
       </c>
       <c r="E44" s="3">
         <f>C43*TAEG/12</f>
-        <v>178.36347117366884</v>
+        <v>177.50706968717927</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B45" s="3">
-        <f>IF(C44&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C44)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C45" s="3">
-        <f>C44-Colonne_Amortissement_Capital</f>
-        <v>35534.722046162969</v>
+        <f t="shared" si="5"/>
+        <v>35351.112873924933</v>
       </c>
       <c r="D45" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>372.20759592639399</v>
+        <f t="shared" si="6"/>
+        <v>376.93206294367849</v>
       </c>
       <c r="E45" s="3">
         <f>C44*TAEG/12</f>
-        <v>176.54240407360604</v>
+        <v>175.66288760627063</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <f>IF(C45&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C45)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C46" s="3">
-        <f>C45-Colonne_Amortissement_Capital</f>
-        <v>35160.684429556604</v>
+        <f t="shared" si="5"/>
+        <v>34972.32756167178</v>
       </c>
       <c r="D46" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>374.03761660636542</v>
+        <f t="shared" si="6"/>
+        <v>378.78531225315146</v>
       </c>
       <c r="E46" s="3">
         <f>C45*TAEG/12</f>
-        <v>174.71238339363458</v>
+        <v>173.8096382967976</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B47" s="3">
-        <f>IF(C46&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C46)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C47" s="3">
-        <f>C46-Colonne_Amortissement_Capital</f>
-        <v>34784.807794668588</v>
+        <f t="shared" si="5"/>
+        <v>34591.679888300052</v>
       </c>
       <c r="D47" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>375.87663488801343</v>
+        <f t="shared" si="6"/>
+        <v>380.64767337172952</v>
       </c>
       <c r="E47" s="3">
         <f>C46*TAEG/12</f>
-        <v>172.8733651119866</v>
+        <v>171.94727717821957</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <f>IF(C47&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C47)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C48" s="3">
-        <f>C47-Colonne_Amortissement_Capital</f>
-        <v>34407.083099659045</v>
+        <f t="shared" si="5"/>
+        <v>34209.16069720091</v>
       </c>
       <c r="D48" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>377.72469500954617</v>
+        <f t="shared" si="6"/>
+        <v>382.51919109914047</v>
       </c>
       <c r="E48" s="3">
         <f>C47*TAEG/12</f>
-        <v>171.02530499045386</v>
+        <v>170.07575945080859</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B49" s="3">
-        <f>IF(C48&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C48)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C49" s="3">
-        <f>C48-Colonne_Amortissement_Capital</f>
-        <v>34027.501258232369</v>
+        <f t="shared" si="5"/>
+        <v>33824.76078674553</v>
       </c>
       <c r="D49" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>379.58184142667636</v>
+        <f t="shared" si="6"/>
+        <v>384.39991045537795</v>
       </c>
       <c r="E49" s="3">
         <f>C48*TAEG/12</f>
-        <v>169.16815857332364</v>
+        <v>168.19504009457114</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <f>IF(C49&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C49)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C50" s="3">
-        <f>C49-Colonne_Amortissement_Capital</f>
-        <v>33646.053139418676</v>
+        <f t="shared" si="5"/>
+        <v>33438.470910063748</v>
       </c>
       <c r="D50" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>381.44811881369083</v>
+        <f t="shared" si="6"/>
+        <v>386.28987668178354</v>
       </c>
       <c r="E50" s="3">
         <f>C49*TAEG/12</f>
-        <v>167.30188118630915</v>
+        <v>166.30507386816552</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B51" s="3">
-        <f>IF(C50&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C50)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C51" s="3">
-        <f>C50-Colonne_Amortissement_Capital</f>
-        <v>33262.729567354152</v>
+        <f t="shared" si="5"/>
+        <v>33050.281774821611</v>
       </c>
       <c r="D51" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>383.32357206452485</v>
+        <f t="shared" si="6"/>
+        <v>388.18913524213565</v>
       </c>
       <c r="E51" s="3">
         <f>C50*TAEG/12</f>
-        <v>165.42642793547515</v>
+        <v>164.40581530781341</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <f>IF(C51&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C51)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C52" s="3">
-        <f>C51-Colonne_Amortissement_Capital</f>
-        <v>32877.521321060311</v>
+        <f t="shared" si="5"/>
+        <v>32660.184042997869</v>
       </c>
       <c r="D52" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>385.20824629384208</v>
+        <f t="shared" si="6"/>
+        <v>390.09773182374283</v>
       </c>
       <c r="E52" s="3">
         <f>C51*TAEG/12</f>
-        <v>163.54175370615789</v>
+        <v>162.49721872620623</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B53" s="3">
-        <f>IF(C52&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C52)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C53" s="3">
-        <f>C52-Colonne_Amortissement_Capital</f>
-        <v>32490.419134222189</v>
+        <f t="shared" si="5"/>
+        <v>32268.168330659326</v>
       </c>
       <c r="D53" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>387.10218683812013</v>
+        <f t="shared" si="6"/>
+        <v>392.01571233854293</v>
       </c>
       <c r="E53" s="3">
         <f>C52*TAEG/12</f>
-        <v>161.64781316187984</v>
+        <v>160.57923821140619</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <f>IF(C53&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C53)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C54" s="3">
-        <f>C53-Colonne_Amortissement_Capital</f>
-        <v>32101.413694965449</v>
+        <f t="shared" si="5"/>
+        <v>31874.225207735119</v>
       </c>
       <c r="D54" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>389.00543925674094</v>
+        <f t="shared" si="6"/>
+        <v>393.94312292420739</v>
       </c>
       <c r="E54" s="3">
         <f>C53*TAEG/12</f>
-        <v>159.74456074325909</v>
+        <v>158.65182762574167</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B55" s="3">
-        <f>IF(C54&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C54)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C55" s="3">
-        <f>C54-Colonne_Amortissement_Capital</f>
-        <v>31710.495645632363</v>
+        <f t="shared" si="5"/>
+        <v>31478.345197789866</v>
       </c>
       <c r="D55" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>390.91804933308651</v>
+        <f t="shared" si="6"/>
+        <v>395.88000994525146</v>
       </c>
       <c r="E55" s="3">
         <f>C54*TAEG/12</f>
-        <v>157.83195066691346</v>
+        <v>156.71494060469766</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <f>IF(C55&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C55)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C56" s="3">
-        <f>C55-Colonne_Amortissement_Capital</f>
-        <v>31317.655582556723</v>
+        <f t="shared" si="5"/>
+        <v>31080.518777795718</v>
       </c>
       <c r="D56" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>392.84006307564084</v>
+        <f t="shared" si="6"/>
+        <v>397.82641999414892</v>
       </c>
       <c r="E56" s="3">
         <f>C55*TAEG/12</f>
-        <v>155.90993692435913</v>
+        <v>154.76853055580017</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B57" s="3">
-        <f>IF(C56&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C56)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C57" s="3">
-        <f>C56-Colonne_Amortissement_Capital</f>
-        <v>30922.884055837625</v>
+        <f t="shared" si="5"/>
+        <v>30680.736377903264</v>
       </c>
       <c r="D57" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>394.77152671909607</v>
+        <f t="shared" si="6"/>
+        <v>399.78239989245344</v>
       </c>
       <c r="E57" s="3">
         <f>C56*TAEG/12</f>
-        <v>153.9784732809039</v>
+        <v>152.81255065749562</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <f>IF(C57&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C57)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C58" s="3">
-        <f>C57-Colonne_Amortissement_Capital</f>
-        <v>30526.171569112161</v>
+        <f t="shared" si="5"/>
+        <v>30278.98838121134</v>
       </c>
       <c r="D58" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>396.71248672546506</v>
+        <f t="shared" si="6"/>
+        <v>401.74799669192475</v>
       </c>
       <c r="E58" s="3">
         <f>C57*TAEG/12</f>
-        <v>152.03751327453497</v>
+        <v>150.84695385802436</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B59" s="3">
-        <f>IF(C58&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C58)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C59" s="3">
-        <f>C58-Colonne_Amortissement_Capital</f>
-        <v>30127.508579326961</v>
+        <f t="shared" si="5"/>
+        <v>29875.265123535679</v>
       </c>
       <c r="D59" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>398.66298978519853</v>
+        <f t="shared" si="6"/>
+        <v>403.72325767565997</v>
       </c>
       <c r="E59" s="3">
         <f>C58*TAEG/12</f>
-        <v>150.08701021480144</v>
+        <v>148.8716928742891</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <f>IF(C59&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C59)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C60" s="3">
-        <f>C59-Colonne_Amortissement_Capital</f>
-        <v>29726.88549650865</v>
+        <f t="shared" si="5"/>
+        <v>29469.556893176446</v>
       </c>
       <c r="D60" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>400.62308281830911</v>
+        <f t="shared" si="6"/>
+        <v>405.708230359232</v>
       </c>
       <c r="E60" s="3">
         <f>C59*TAEG/12</f>
-        <v>148.12691718169089</v>
+        <v>146.88672019071709</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B61" s="3">
-        <f>IF(C60&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C60)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C61" s="3">
-        <f>C60-Colonne_Amortissement_Capital</f>
-        <v>29324.292683533153</v>
+        <f t="shared" si="5"/>
+        <v>29061.853930684614</v>
       </c>
       <c r="D61" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>402.5928129754991</v>
+        <f t="shared" si="6"/>
+        <v>407.70296249183161</v>
       </c>
       <c r="E61" s="3">
         <f>C60*TAEG/12</f>
-        <v>146.15718702450087</v>
+        <v>144.89198805811751</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <f>IF(C61&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C61)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C62" s="3">
-        <f>C61-Colonne_Amortissement_Capital</f>
-        <v>28919.720455893857</v>
+        <f t="shared" si="5"/>
+        <v>28652.146428627198</v>
       </c>
       <c r="D62" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>404.57222763929531</v>
+        <f t="shared" si="6"/>
+        <v>409.70750205741638</v>
       </c>
       <c r="E62" s="3">
         <f>C61*TAEG/12</f>
-        <v>144.17777236070467</v>
+        <v>142.88744849253268</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" ref="A63:A126" si="1">A62+1</f>
+        <f t="shared" ref="A63:A124" si="7">A62+1</f>
         <v>61</v>
       </c>
       <c r="B63" s="3">
-        <f>IF(C62&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C62)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C63" s="3">
-        <f>C62-Colonne_Amortissement_Capital</f>
-        <v>28513.159081468668</v>
+        <f t="shared" si="5"/>
+        <v>28240.424531351335</v>
       </c>
       <c r="D63" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>406.56137442518855</v>
+        <f t="shared" si="6"/>
+        <v>411.72189727586533</v>
       </c>
       <c r="E63" s="3">
         <f>C62*TAEG/12</f>
-        <v>142.18862557481145</v>
+        <v>140.87305327408373</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <f>IF(C63&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C63)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C64" s="3">
-        <f>C63-Colonne_Amortissement_Capital</f>
-        <v>28104.598780285887</v>
+        <f t="shared" si="5"/>
+        <v>27826.678334747197</v>
       </c>
       <c r="D64" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>408.56030118277909</v>
+        <f t="shared" si="6"/>
+        <v>413.74619660413839</v>
       </c>
       <c r="E64" s="3">
         <f>C63*TAEG/12</f>
-        <v>140.18969881722094</v>
+        <v>138.84875394581073</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="B65" s="3">
-        <f>IF(C64&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C64)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C65" s="3">
-        <f>C64-Colonne_Amortissement_Capital</f>
-        <v>27694.029724288961</v>
+        <f t="shared" si="5"/>
+        <v>27410.897886009756</v>
       </c>
       <c r="D65" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>410.56905599692777</v>
+        <f t="shared" si="6"/>
+        <v>415.78044873744204</v>
       </c>
       <c r="E65" s="3">
         <f>C64*TAEG/12</f>
-        <v>138.18094400307226</v>
+        <v>136.81450181250705</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <f>IF(C65&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C65)</f>
-        <v>548.75</v>
+        <f t="shared" si="4"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C66" s="3">
-        <f>C65-Colonne_Amortissement_Capital</f>
-        <v>27281.442037100049</v>
+        <f t="shared" si="5"/>
+        <v>26993.073183399356</v>
       </c>
       <c r="D66" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>412.58768718891258</v>
+        <f t="shared" si="6"/>
+        <v>417.82470261040112</v>
       </c>
       <c r="E66" s="3">
         <f>C65*TAEG/12</f>
-        <v>136.16231281108739</v>
+        <v>134.77024793954794</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <f>IF(C66&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C66)</f>
-        <v>548.75</v>
+        <f t="shared" ref="B67:B98" si="8">IF(C66&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C66)</f>
+        <v>552.59495054994909</v>
       </c>
       <c r="C67" s="3">
-        <f>C66-Colonne_Amortissement_Capital</f>
-        <v>26866.825793782456</v>
+        <f t="shared" ref="C67:C98" si="9">C66-Colonne_Amortissement_Capital</f>
+        <v>26573.194176001121</v>
       </c>
       <c r="D67" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>414.6162433175914</v>
+        <f t="shared" ref="D67:D98" si="10">Colonne_Versement-Colonne_interets</f>
+        <v>419.87900739823556</v>
       </c>
       <c r="E67" s="3">
         <f>C66*TAEG/12</f>
-        <v>134.13375668240857</v>
+        <v>132.7159431517135</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <f>IF(C67&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C67)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C68" s="3">
-        <f>C67-Colonne_Amortissement_Capital</f>
-        <v>26450.171020601887</v>
+        <f t="shared" si="9"/>
+        <v>26151.250763483178</v>
       </c>
       <c r="D68" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>416.65477318056958</v>
+        <f t="shared" si="10"/>
+        <v>421.94341251794356</v>
       </c>
       <c r="E68" s="3">
         <f>C67*TAEG/12</f>
-        <v>132.09522681943039</v>
+        <v>130.6515380320055</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="B69" s="3">
-        <f>IF(C68&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C68)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C69" s="3">
-        <f>C68-Colonne_Amortissement_Capital</f>
-        <v>26031.467694786512</v>
+        <f t="shared" si="9"/>
+        <v>25727.232795853688</v>
       </c>
       <c r="D69" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>418.70332581537406</v>
+        <f t="shared" si="10"/>
+        <v>424.01796762949016</v>
       </c>
       <c r="E69" s="3">
         <f>C68*TAEG/12</f>
-        <v>130.04667418462594</v>
+        <v>128.57698292045896</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <f>IF(C69&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C69)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C70" s="3">
-        <f>C69-Colonne_Amortissement_Capital</f>
-        <v>25610.705744285879</v>
+        <f t="shared" si="9"/>
+        <v>25301.130073216686</v>
       </c>
       <c r="D70" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>420.76195050063296</v>
+        <f t="shared" si="10"/>
+        <v>426.10272263700182</v>
       </c>
       <c r="E70" s="3">
         <f>C69*TAEG/12</f>
-        <v>127.98804949936702</v>
+        <v>126.49222791294729</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="B71" s="3">
-        <f>IF(C70&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C70)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C71" s="3">
-        <f>C70-Colonne_Amortissement_Capital</f>
-        <v>25187.875047528618</v>
+        <f t="shared" si="9"/>
+        <v>24872.932345526719</v>
       </c>
       <c r="D71" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>422.83069675726108</v>
+        <f t="shared" si="10"/>
+        <v>428.19772768996705</v>
       </c>
       <c r="E71" s="3">
         <f>C70*TAEG/12</f>
-        <v>125.91930324273891</v>
+        <v>124.39722285998204</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <f>IF(C71&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C71)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C72" s="3">
-        <f>C71-Colonne_Amortissement_Capital</f>
-        <v>24762.965433178968</v>
+        <f t="shared" si="9"/>
+        <v>24442.629312342277</v>
       </c>
       <c r="D72" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>424.90961434965095</v>
+        <f t="shared" si="10"/>
+        <v>430.30303318444271</v>
       </c>
       <c r="E72" s="3">
         <f>C71*TAEG/12</f>
-        <v>123.84038565034903</v>
+        <v>122.29191736550636</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="B73" s="3">
-        <f>IF(C72&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C72)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C73" s="3">
-        <f>C72-Colonne_Amortissement_Capital</f>
-        <v>24335.966679892099</v>
+        <f t="shared" si="9"/>
+        <v>24010.210622578012</v>
       </c>
       <c r="D73" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>426.99875328687006</v>
+        <f t="shared" si="10"/>
+        <v>432.41868976426622</v>
       </c>
       <c r="E73" s="3">
         <f>C72*TAEG/12</f>
-        <v>121.75124671312993</v>
+        <v>120.17626078568286</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <f>IF(C73&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C73)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C74" s="3">
-        <f>C73-Colonne_Amortissement_Capital</f>
-        <v>23906.868516068236</v>
+        <f t="shared" si="9"/>
+        <v>23575.665874255737</v>
       </c>
       <c r="D74" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>429.09816382386384</v>
+        <f t="shared" si="10"/>
+        <v>434.54474832227385</v>
       </c>
       <c r="E74" s="3">
         <f>C73*TAEG/12</f>
-        <v>119.65183617613614</v>
+        <v>118.05020222767523</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="B75" s="3">
-        <f>IF(C74&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C74)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C75" s="3">
-        <f>C74-Colonne_Amortissement_Capital</f>
-        <v>23475.660619605573</v>
+        <f t="shared" si="9"/>
+        <v>23138.984614254212</v>
       </c>
       <c r="D75" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>431.20789646266451</v>
+        <f t="shared" si="10"/>
+        <v>436.68126000152506</v>
       </c>
       <c r="E75" s="3">
         <f>C74*TAEG/12</f>
-        <v>117.54210353733549</v>
+        <v>115.91369054842403</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <f>IF(C75&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C75)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C76" s="3">
-        <f>C75-Colonne_Amortissement_Capital</f>
-        <v>23042.332617651966</v>
+        <f t="shared" si="9"/>
+        <v>22700.156338057681</v>
       </c>
       <c r="D76" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>433.32800195360596</v>
+        <f t="shared" si="10"/>
+        <v>438.82827619653256</v>
       </c>
       <c r="E76" s="3">
         <f>C75*TAEG/12</f>
-        <v>115.42199804639405</v>
+        <v>113.76667435341653</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="B77" s="3">
-        <f>IF(C76&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C76)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C77" s="3">
-        <f>C76-Colonne_Amortissement_Capital</f>
-        <v>22606.874086355423</v>
+        <f t="shared" si="9"/>
+        <v>22259.170489503183</v>
       </c>
       <c r="D77" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>435.45853129654449</v>
+        <f t="shared" si="10"/>
+        <v>440.98584855449883</v>
       </c>
       <c r="E77" s="3">
         <f>C76*TAEG/12</f>
-        <v>113.29146870345549</v>
+        <v>111.60910199545026</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <f>IF(C77&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C77)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C78" s="3">
-        <f>C77-Colonne_Amortissement_Capital</f>
-        <v>22169.274550613336</v>
+        <f t="shared" si="9"/>
+        <v>21816.016460526625</v>
       </c>
       <c r="D78" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>437.59953574208583</v>
+        <f t="shared" si="10"/>
+        <v>443.15402897655844</v>
       </c>
       <c r="E78" s="3">
         <f>C77*TAEG/12</f>
-        <v>111.15046425791417</v>
+        <v>109.44092157339065</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="B79" s="3">
-        <f>IF(C78&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C78)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C79" s="3">
-        <f>C78-Colonne_Amortissement_Capital</f>
-        <v>21729.523483820518</v>
+        <f t="shared" si="9"/>
+        <v>21370.6835909076</v>
       </c>
       <c r="D79" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>439.75106679281777</v>
+        <f t="shared" si="10"/>
+        <v>445.3328696190265</v>
       </c>
       <c r="E79" s="3">
         <f>C78*TAEG/12</f>
-        <v>108.99893320718223</v>
+        <v>107.26208093092258</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <f>IF(C79&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C79)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C80" s="3">
-        <f>C79-Colonne_Amortissement_Capital</f>
-        <v>21287.610307615967</v>
+        <f t="shared" si="9"/>
+        <v>20923.161168012946</v>
       </c>
       <c r="D80" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>441.91317620454913</v>
+        <f t="shared" si="10"/>
+        <v>447.5224228946534</v>
       </c>
       <c r="E80" s="3">
         <f>C79*TAEG/12</f>
-        <v>106.83682379545087</v>
+        <v>105.07252765529569</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="B81" s="3">
-        <f>IF(C80&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C80)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C81" s="3">
-        <f>C80-Colonne_Amortissement_Capital</f>
-        <v>20843.524391628413</v>
+        <f t="shared" si="9"/>
+        <v>20473.438426539062</v>
       </c>
       <c r="D81" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>444.08591598755481</v>
+        <f t="shared" si="10"/>
+        <v>449.72274147388543</v>
       </c>
       <c r="E81" s="3">
         <f>C80*TAEG/12</f>
-        <v>104.66408401244517</v>
+        <v>102.87220907606365</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <f>IF(C81&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C81)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C82" s="3">
-        <f>C81-Colonne_Amortissement_Capital</f>
-        <v>20397.255053220586</v>
+        <f t="shared" si="9"/>
+        <v>20021.504548252931</v>
       </c>
       <c r="D82" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>446.26933840782698</v>
+        <f t="shared" si="10"/>
+        <v>451.93387828613203</v>
       </c>
       <c r="E82" s="3">
         <f>C81*TAEG/12</f>
-        <v>102.48066159217302</v>
+        <v>100.66107226381705</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="B83" s="3">
-        <f>IF(C82&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C82)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C83" s="3">
-        <f>C82-Colonne_Amortissement_Capital</f>
-        <v>19948.791557232253</v>
+        <f t="shared" si="9"/>
+        <v>19567.348661731892</v>
       </c>
       <c r="D83" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>448.46349598833211</v>
+        <f t="shared" si="10"/>
+        <v>454.15588652103884</v>
       </c>
       <c r="E83" s="3">
         <f>C82*TAEG/12</f>
-        <v>100.28650401166787</v>
+        <v>98.439064028910238</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <f>IF(C83&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C83)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C84" s="3">
-        <f>C83-Colonne_Amortissement_Capital</f>
-        <v>19498.123115721977</v>
+        <f t="shared" si="9"/>
+        <v>19110.959842102126</v>
       </c>
       <c r="D84" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>450.66844151027476</v>
+        <f t="shared" si="10"/>
+        <v>456.38881962976728</v>
       </c>
       <c r="E84" s="3">
         <f>C83*TAEG/12</f>
-        <v>98.081558489725239</v>
+        <v>96.206130920181806</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="B85" s="3">
-        <f>IF(C84&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C84)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C85" s="3">
-        <f>C84-Colonne_Amortissement_Capital</f>
-        <v>19045.238887707612</v>
+        <f t="shared" si="9"/>
+        <v>18652.327110775845</v>
       </c>
       <c r="D85" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>452.88422801436695</v>
+        <f t="shared" si="10"/>
+        <v>458.63273132628029</v>
       </c>
       <c r="E85" s="3">
         <f>C84*TAEG/12</f>
-        <v>95.865771985633046</v>
+        <v>93.962219223668782</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <f>IF(C85&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C85)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C86" s="3">
-        <f>C85-Colonne_Amortissement_Capital</f>
-        <v>18590.127978905508</v>
+        <f t="shared" si="9"/>
+        <v>18191.439435187211</v>
       </c>
       <c r="D86" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>455.11090880210423</v>
+        <f t="shared" si="10"/>
+        <v>460.88767558863452</v>
       </c>
       <c r="E86" s="3">
         <f>C85*TAEG/12</f>
-        <v>93.639091197895752</v>
+        <v>91.707274961314567</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="B87" s="3">
-        <f>IF(C86&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C86)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C87" s="3">
-        <f>C86-Colonne_Amortissement_Capital</f>
-        <v>18132.779441468461</v>
+        <f t="shared" si="9"/>
+        <v>17728.285728526931</v>
       </c>
       <c r="D87" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>457.34853743704792</v>
+        <f t="shared" si="10"/>
+        <v>463.15370666027866</v>
       </c>
       <c r="E87" s="3">
         <f>C86*TAEG/12</f>
-        <v>91.401462562952076</v>
+        <v>89.441243889670446</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <f>IF(C87&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C87)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C88" s="3">
-        <f>C87-Colonne_Amortissement_Capital</f>
-        <v>17673.182273722348</v>
+        <f t="shared" si="9"/>
+        <v>17262.854849475574</v>
       </c>
       <c r="D88" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>459.59716774611343</v>
+        <f t="shared" si="10"/>
+        <v>465.43087905135837</v>
       </c>
       <c r="E88" s="3">
         <f>C87*TAEG/12</f>
-        <v>89.152832253886586</v>
+        <v>87.164071498590729</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="B89" s="3">
-        <f>IF(C88&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C88)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C89" s="3">
-        <f>C88-Colonne_Amortissement_Capital</f>
-        <v>17211.325419901485</v>
+        <f t="shared" si="9"/>
+        <v>16795.135601935548</v>
       </c>
       <c r="D89" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>461.85685382086513</v>
+        <f t="shared" si="10"/>
+        <v>467.71924754002754</v>
       </c>
       <c r="E89" s="3">
         <f>C88*TAEG/12</f>
-        <v>86.893146179134874</v>
+        <v>84.875703009921565</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <f>IF(C89&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C89)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C90" s="3">
-        <f>C89-Colonne_Amortissement_Capital</f>
-        <v>16747.197769882667</v>
+        <f t="shared" si="9"/>
+        <v>16325.116734761781</v>
       </c>
       <c r="D90" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>464.12765001881769</v>
+        <f t="shared" si="10"/>
+        <v>470.01886717376601</v>
       </c>
       <c r="E90" s="3">
         <f>C89*TAEG/12</f>
-        <v>84.622349981182296</v>
+        <v>82.576083376183107</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="B91" s="3">
-        <f>IF(C90&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C90)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C91" s="3">
-        <f>C90-Colonne_Amortissement_Capital</f>
-        <v>16280.788158917923</v>
+        <f t="shared" si="9"/>
+        <v>15852.786941491078</v>
       </c>
       <c r="D91" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>466.40961096474359</v>
+        <f t="shared" si="10"/>
+        <v>472.32979327070365</v>
       </c>
       <c r="E91" s="3">
         <f>C90*TAEG/12</f>
-        <v>82.340389035256436</v>
+        <v>80.265157279245429</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <f>IF(C91&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C91)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C92" s="3">
-        <f>C91-Colonne_Amortissement_Capital</f>
-        <v>15812.085367365937</v>
+        <f t="shared" si="9"/>
+        <v>15378.134860070128</v>
       </c>
       <c r="D92" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>468.70279155198688</v>
+        <f t="shared" si="10"/>
+        <v>474.65208142095128</v>
       </c>
       <c r="E92" s="3">
         <f>C91*TAEG/12</f>
-        <v>80.047208448013123</v>
+        <v>77.942869128997799</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="B93" s="3">
-        <f>IF(C92&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C92)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C93" s="3">
-        <f>C92-Colonne_Amortissement_Capital</f>
-        <v>15341.078120422153</v>
+        <f t="shared" si="9"/>
+        <v>14901.14907258219</v>
       </c>
       <c r="D93" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>471.00724694378414</v>
+        <f t="shared" si="10"/>
+        <v>476.98578748793761</v>
       </c>
       <c r="E93" s="3">
         <f>C92*TAEG/12</f>
-        <v>77.742753056215847</v>
+        <v>75.609163062011461</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <f>IF(C93&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C93)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C94" s="3">
-        <f>C93-Colonne_Amortissement_Capital</f>
-        <v>14867.755087847561</v>
+        <f t="shared" si="9"/>
+        <v>14421.818104972437</v>
       </c>
       <c r="D94" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>473.32303257459108</v>
+        <f t="shared" si="10"/>
+        <v>479.33096760975332</v>
       </c>
       <c r="E94" s="3">
         <f>C93*TAEG/12</f>
-        <v>75.426967425408918</v>
+        <v>73.26398294019576</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="B95" s="3">
-        <f>IF(C94&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C94)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C95" s="3">
-        <f>C94-Colonne_Amortissement_Capital</f>
-        <v>14392.104883696145</v>
+        <f t="shared" si="9"/>
+        <v>13940.130426771935</v>
       </c>
       <c r="D95" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>475.65020415141618</v>
+        <f t="shared" si="10"/>
+        <v>481.6876782005013</v>
       </c>
       <c r="E95" s="3">
         <f>C94*TAEG/12</f>
-        <v>73.099795848583838</v>
+        <v>70.907272349447808</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <f>IF(C95&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C95)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C96" s="3">
-        <f>C95-Colonne_Amortissement_Capital</f>
-        <v>13914.116066040984</v>
+        <f t="shared" si="9"/>
+        <v>13456.074450820281</v>
       </c>
       <c r="D96" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>477.98881765516063</v>
+        <f t="shared" si="10"/>
+        <v>484.05597595165375</v>
       </c>
       <c r="E96" s="3">
         <f>C95*TAEG/12</f>
-        <v>70.761182344839384</v>
+        <v>68.53897459829534</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="B97" s="3">
-        <f>IF(C96&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C96)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C97" s="3">
-        <f>C96-Colonne_Amortissement_Capital</f>
-        <v>13433.777136699018</v>
+        <f t="shared" si="9"/>
+        <v>12969.638532986864</v>
       </c>
       <c r="D97" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>480.33892934196518</v>
+        <f t="shared" si="10"/>
+        <v>486.43591783341606</v>
       </c>
       <c r="E97" s="3">
         <f>C96*TAEG/12</f>
-        <v>68.411070658034831</v>
+        <v>66.159032716533048</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <f>IF(C97&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C97)</f>
-        <v>548.75</v>
+        <f t="shared" si="8"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C98" s="3">
-        <f>C97-Colonne_Amortissement_Capital</f>
-        <v>12951.076540954455</v>
+        <f t="shared" si="9"/>
+        <v>12480.810971890767</v>
       </c>
       <c r="D98" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>482.70059574456315</v>
+        <f t="shared" si="10"/>
+        <v>488.82756109609704</v>
       </c>
       <c r="E98" s="3">
         <f>C97*TAEG/12</f>
-        <v>66.049404255436841</v>
+        <v>63.767389453852076</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="B99" s="3">
-        <f>IF(C98&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C98)</f>
-        <v>548.75</v>
+        <f t="shared" ref="B99:B124" si="11">IF(C98&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C98)</f>
+        <v>552.59495054994909</v>
       </c>
       <c r="C99" s="3">
-        <f>C98-Colonne_Amortissement_Capital</f>
-        <v>12466.002667280814</v>
+        <f t="shared" ref="C99:C124" si="12">C98-Colonne_Amortissement_Capital</f>
+        <v>11989.580008619281</v>
       </c>
       <c r="D99" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>485.07387367364061</v>
+        <f t="shared" ref="D99:D124" si="13">Colonne_Versement-Colonne_interets</f>
+        <v>491.23096327148613</v>
       </c>
       <c r="E99" s="3">
         <f>C98*TAEG/12</f>
-        <v>63.676126326359395</v>
+        <v>61.363987278462936</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <f>IF(C99&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C99)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C100" s="3">
-        <f>C99-Colonne_Amortissement_Capital</f>
-        <v>11978.543847061612</v>
+        <f t="shared" si="12"/>
+        <v>11495.933826445043</v>
       </c>
       <c r="D100" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>487.45882021920266</v>
+        <f t="shared" si="13"/>
+        <v>493.64618217423765</v>
       </c>
       <c r="E100" s="3">
         <f>C99*TAEG/12</f>
-        <v>61.291179780797336</v>
+        <v>58.948768375711467</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="B101" s="3">
-        <f>IF(C100&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C100)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C101" s="3">
-        <f>C100-Colonne_Amortissement_Capital</f>
-        <v>11488.688354309665</v>
+        <f t="shared" si="12"/>
+        <v>10999.860550541782</v>
       </c>
       <c r="D101" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>489.85549275194705</v>
+        <f t="shared" si="13"/>
+        <v>496.07327590326099</v>
       </c>
       <c r="E101" s="3">
         <f>C100*TAEG/12</f>
-        <v>58.894507248052918</v>
+        <v>56.521674646688126</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <f>IF(C101&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C101)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C102" s="3">
-        <f>C101-Colonne_Amortissement_Capital</f>
-        <v>10996.42440538502</v>
+        <f t="shared" si="12"/>
+        <v>10501.348247698663</v>
       </c>
       <c r="D102" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>492.26394892464418</v>
+        <f t="shared" si="13"/>
+        <v>498.51230284311868</v>
       </c>
       <c r="E102" s="3">
         <f>C101*TAEG/12</f>
-        <v>56.486051075355846</v>
+        <v>54.082647706830421</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="B103" s="3">
-        <f>IF(C102&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C102)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C103" s="3">
-        <f>C102-Colonne_Amortissement_Capital</f>
-        <v>10501.740158711496</v>
+        <f t="shared" si="12"/>
+        <v>10000.384926033232</v>
       </c>
       <c r="D103" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>494.68424667352366</v>
+        <f t="shared" si="13"/>
+        <v>500.96332166543067</v>
       </c>
       <c r="E103" s="3">
         <f>C102*TAEG/12</f>
-        <v>54.06575332647634</v>
+        <v>51.63162888451842</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f>IF(C103&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C103)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C104" s="3">
-        <f>C103-Colonne_Amortissement_Capital</f>
-        <v>10004.623714491829</v>
+        <f t="shared" si="12"/>
+        <v>9496.9585347029461</v>
       </c>
       <c r="D104" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>497.11644421966849</v>
+        <f t="shared" si="13"/>
+        <v>503.4263913302857</v>
       </c>
       <c r="E104" s="3">
         <f>C103*TAEG/12</f>
-        <v>51.633555780331527</v>
+        <v>49.168559219663386</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
       <c r="B105" s="3">
-        <f>IF(C104&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C104)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C105" s="3">
-        <f>C104-Colonne_Amortissement_Capital</f>
-        <v>9505.063114421413</v>
+        <f t="shared" si="12"/>
+        <v>8991.0569636152868</v>
       </c>
       <c r="D105" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>499.56060007041515</v>
+        <f t="shared" si="13"/>
+        <v>505.90157108765959</v>
       </c>
       <c r="E105" s="3">
         <f>C104*TAEG/12</f>
-        <v>49.189399929584823</v>
+        <v>46.693379462289478</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="B106" s="3">
-        <f>IF(C105&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C105)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C106" s="3">
-        <f>C105-Colonne_Amortissement_Capital</f>
-        <v>9003.0463414006517</v>
+        <f t="shared" si="12"/>
+        <v>8482.6680431364457</v>
       </c>
       <c r="D106" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>502.01677302076138</v>
+        <f t="shared" si="13"/>
+        <v>508.38892047884059</v>
       </c>
       <c r="E106" s="3">
         <f>C105*TAEG/12</f>
-        <v>46.733226979238616</v>
+        <v>44.206030071108493</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="B107" s="3">
-        <f>IF(C106&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C106)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C107" s="3">
-        <f>C106-Colonne_Amortissement_Capital</f>
-        <v>8498.5613192458713</v>
+        <f t="shared" si="12"/>
+        <v>7971.7795437985842</v>
       </c>
       <c r="D107" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>504.48502215478015</v>
+        <f t="shared" si="13"/>
+        <v>510.88849933786156</v>
       </c>
       <c r="E107" s="3">
         <f>C106*TAEG/12</f>
-        <v>44.264977845219867</v>
+        <v>41.706451212087522</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <f>IF(C107&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C107)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C108" s="3">
-        <f>C107-Colonne_Amortissement_Capital</f>
-        <v>7991.5959123988305</v>
+        <f t="shared" si="12"/>
+        <v>7458.3791760056447</v>
       </c>
       <c r="D108" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>506.96540684704115</v>
+        <f t="shared" si="13"/>
+        <v>513.40036779293939</v>
       </c>
       <c r="E108" s="3">
         <f>C107*TAEG/12</f>
-        <v>41.78459315295887</v>
+        <v>39.194582757009705</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="B109" s="3">
-        <f>IF(C108&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C108)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C109" s="3">
-        <f>C108-Colonne_Amortissement_Capital</f>
-        <v>7482.1379256347918</v>
+        <f t="shared" si="12"/>
+        <v>6942.4545897377229</v>
       </c>
       <c r="D109" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>509.45798676403911</v>
+        <f t="shared" si="13"/>
+        <v>515.92458626792131</v>
       </c>
       <c r="E109" s="3">
         <f>C108*TAEG/12</f>
-        <v>39.292013235960916</v>
+        <v>36.670364282027755</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="B110" s="3">
-        <f>IF(C109&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C109)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C110" s="3">
-        <f>C109-Colonne_Amortissement_Capital</f>
-        <v>6970.1751037691629</v>
+        <f t="shared" si="12"/>
+        <v>6423.9933742539843</v>
       </c>
       <c r="D110" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>511.96282186562894</v>
+        <f t="shared" si="13"/>
+        <v>518.46121548373867</v>
       </c>
       <c r="E110" s="3">
         <f>C109*TAEG/12</f>
-        <v>36.787178134371054</v>
+        <v>34.13373506621047</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>109</v>
       </c>
       <c r="B111" s="3">
-        <f>IF(C110&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C110)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C111" s="3">
-        <f>C110-Colonne_Amortissement_Capital</f>
-        <v>6455.6951313626942</v>
+        <f t="shared" si="12"/>
+        <v>5902.9830577941175</v>
       </c>
       <c r="D111" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>514.47997240646828</v>
+        <f t="shared" si="13"/>
+        <v>521.010316459867</v>
       </c>
       <c r="E111" s="3">
         <f>C110*TAEG/12</f>
-        <v>34.270027593531715</v>
+        <v>31.584634090082087</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="B112" s="3">
-        <f>IF(C111&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C111)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C112" s="3">
-        <f>C111-Colonne_Amortissement_Capital</f>
-        <v>5938.6856324252276</v>
+        <f t="shared" si="12"/>
+        <v>5379.4111072783226</v>
       </c>
       <c r="D112" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>517.00949893746679</v>
+        <f t="shared" si="13"/>
+        <v>523.5719505157947</v>
       </c>
       <c r="E112" s="3">
         <f>C111*TAEG/12</f>
-        <v>31.740501062533244</v>
+        <v>29.023000034154411</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
       <c r="B113" s="3">
-        <f>IF(C112&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C112)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C113" s="3">
-        <f>C112-Colonne_Amortissement_Capital</f>
-        <v>5419.1341701179845</v>
+        <f t="shared" si="12"/>
+        <v>4853.2649280058249</v>
       </c>
       <c r="D113" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>519.55146230724267</v>
+        <f t="shared" si="13"/>
+        <v>526.14617927249731</v>
       </c>
       <c r="E113" s="3">
         <f>C112*TAEG/12</f>
-        <v>29.19853769275737</v>
+        <v>26.448771277451751</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
       <c r="B114" s="3">
-        <f>IF(C113&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C113)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C114" s="3">
-        <f>C113-Colonne_Amortissement_Capital</f>
-        <v>4897.028246454398</v>
+        <f t="shared" si="12"/>
+        <v>4324.5318633519046</v>
       </c>
       <c r="D114" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>522.10592366358662</v>
+        <f t="shared" si="13"/>
+        <v>528.73306465392045</v>
       </c>
       <c r="E114" s="3">
         <f>C113*TAEG/12</f>
-        <v>26.64407633641342</v>
+        <v>23.861885896028639</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>113</v>
       </c>
       <c r="B115" s="3">
-        <f>IF(C114&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C114)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C115" s="3">
-        <f>C114-Colonne_Amortissement_Capital</f>
-        <v>4372.3553019994652</v>
+        <f t="shared" si="12"/>
+        <v>3793.1991944634356</v>
       </c>
       <c r="D115" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>524.67294445493258</v>
+        <f t="shared" si="13"/>
+        <v>531.3326688884689</v>
       </c>
       <c r="E115" s="3">
         <f>C114*TAEG/12</f>
-        <v>24.077055545067456</v>
+        <v>21.262281661480198</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>114</v>
       </c>
       <c r="B116" s="3">
-        <f>IF(C115&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C115)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C116" s="3">
-        <f>C115-Colonne_Amortissement_Capital</f>
-        <v>3845.1027155676293</v>
+        <f t="shared" si="12"/>
+        <v>3259.2541399529318</v>
       </c>
       <c r="D116" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>527.25258643183599</v>
+        <f t="shared" si="13"/>
+        <v>533.94505451050384</v>
       </c>
       <c r="E116" s="3">
         <f>C115*TAEG/12</f>
-        <v>21.497413568164035</v>
+        <v>18.649896039445224</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
       <c r="B117" s="3">
-        <f>IF(C116&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C116)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C117" s="3">
-        <f>C116-Colonne_Amortissement_Capital</f>
-        <v>3315.2578039191703</v>
+        <f t="shared" si="12"/>
+        <v>2722.6838555910845</v>
       </c>
       <c r="D117" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>529.84491164845917</v>
+        <f t="shared" si="13"/>
+        <v>536.57028436184714</v>
       </c>
       <c r="E117" s="3">
         <f>C116*TAEG/12</f>
-        <v>18.905088351540844</v>
+        <v>16.024666188101914</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>116</v>
       </c>
       <c r="B118" s="3">
-        <f>IF(C117&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C117)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C118" s="3">
-        <f>C117-Colonne_Amortissement_Capital</f>
-        <v>2782.807821455106</v>
+        <f t="shared" si="12"/>
+        <v>2183.4754339977917</v>
       </c>
       <c r="D118" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>532.44998246406408</v>
+        <f t="shared" si="13"/>
+        <v>539.20842159329288</v>
       </c>
       <c r="E118" s="3">
         <f>C117*TAEG/12</f>
-        <v>16.300017535935918</v>
+        <v>13.386528956656164</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="B119" s="3">
-        <f>IF(C118&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C118)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C119" s="3">
-        <f>C118-Colonne_Amortissement_Capital</f>
-        <v>2247.7399599105938</v>
+        <f t="shared" si="12"/>
+        <v>1641.6159043316652</v>
       </c>
       <c r="D119" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>535.06786154451243</v>
+        <f t="shared" si="13"/>
+        <v>541.8595296661266</v>
       </c>
       <c r="E119" s="3">
         <f>C118*TAEG/12</f>
-        <v>13.682138455487603</v>
+        <v>10.735420883822476</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>118</v>
       </c>
       <c r="B120" s="3">
-        <f>IF(C119&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C119)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C120" s="3">
-        <f>C119-Colonne_Amortissement_Capital</f>
-        <v>1710.041348046821</v>
+        <f t="shared" si="12"/>
+        <v>1097.0922319780134</v>
       </c>
       <c r="D120" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>537.69861186377295</v>
+        <f t="shared" si="13"/>
+        <v>544.5236723536517</v>
       </c>
       <c r="E120" s="3">
         <f>C119*TAEG/12</f>
-        <v>11.051388136227084</v>
+        <v>8.071278196297353</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>119</v>
       </c>
       <c r="B121" s="3">
-        <f>IF(C120&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C120)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>552.59495054994909</v>
       </c>
       <c r="C121" s="3">
-        <f>C120-Colonne_Amortissement_Capital</f>
-        <v>1169.6990513413846</v>
+        <f t="shared" si="12"/>
+        <v>549.89131823528953</v>
       </c>
       <c r="D121" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>540.34229670543641</v>
+        <f t="shared" si="13"/>
+        <v>547.20091374272386</v>
       </c>
       <c r="E121" s="3">
         <f>C120*TAEG/12</f>
-        <v>8.4077032945635359</v>
+        <v>5.3940368072252314</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="B122" s="3">
-        <f>IF(C121&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C121)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>549.89131823528953</v>
       </c>
       <c r="C122" s="3">
-        <f>C121-Colonne_Amortissement_Capital</f>
-        <v>626.70007167714641</v>
+        <f t="shared" si="12"/>
+        <v>2.7036323146568293</v>
       </c>
       <c r="D122" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>542.99897966423816</v>
+        <f t="shared" si="13"/>
+        <v>547.1876859206327</v>
       </c>
       <c r="E122" s="3">
         <f>C121*TAEG/12</f>
-        <v>5.7510203357618073</v>
+        <v>2.70363231465684</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
       <c r="B123" s="3">
-        <f>IF(C122&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C122)</f>
-        <v>548.75</v>
+        <f t="shared" si="11"/>
+        <v>2.7036323146568293</v>
       </c>
       <c r="C123" s="3">
-        <f>C122-Colonne_Amortissement_Capital</f>
-        <v>81.031347029559015</v>
+        <f t="shared" si="12"/>
+        <v>1.3292858880395997E-2</v>
       </c>
       <c r="D123" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>545.6687246475874</v>
+        <f t="shared" si="13"/>
+        <v>2.6903394557764333</v>
       </c>
       <c r="E123" s="3">
         <f>C122*TAEG/12</f>
-        <v>3.0812753524126362</v>
+        <v>1.3292858880396078E-2</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>122</v>
       </c>
       <c r="B124" s="3">
-        <f>IF(C123&gt;VERSEMENT_MENSUEL,VERSEMENT_MENSUEL,C123)</f>
-        <v>81.031347029559015</v>
+        <f t="shared" si="11"/>
+        <v>1.3292858880395997E-2</v>
       </c>
       <c r="C124" s="3">
-        <f>C123-Colonne_Amortissement_Capital</f>
-        <v>0.39840412289532878</v>
+        <f t="shared" si="12"/>
+        <v>6.5356556161947146E-5</v>
       </c>
       <c r="D124" s="3">
-        <f>Colonne_Versement-Colonne_interets</f>
-        <v>80.632942906663686</v>
+        <f t="shared" si="13"/>
+        <v>1.322750232423405E-2</v>
       </c>
       <c r="E124" s="3">
         <f>C123*TAEG/12</f>
-        <v>0.39840412289533184</v>
+        <v>6.5356556161946984E-5</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -5050,4 +5197,160 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A44370-6758-4DEA-878E-812E76BC3C9B}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="64.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
+        <v>0.08</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>10</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <f>PMT(A2/12, A3, A4)</f>
+        <v>-1037.0320893591522</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <f>PMT(A2/12, A3, A4,,1)</f>
+        <v>-1030.1643271779658</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>18</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>